--- a/Ananlyse/Analyse_fonctionnel_exercice_2.xlsx
+++ b/Ananlyse/Analyse_fonctionnel_exercice_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezli\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1824840-83C7-402F-9CFC-78889F7AA4AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB598B-DDD8-4F5D-B1EB-BA9A66A39BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EFE59B70-18CE-49EE-88A6-987DE46377F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EFE59B70-18CE-49EE-88A6-987DE46377F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Enoncé" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
   <si>
     <t>Bonjour Azzouz,</t>
   </si>
@@ -849,11 +849,68 @@
     <t>Un plan est défini par :</t>
   </si>
   <si>
-    <t>Un client est utilisateur Il peut :</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Un client est un </t>
+    <t>Numéro table</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>id_article</t>
+  </si>
+  <si>
+    <t>id_dressage</t>
+  </si>
+  <si>
+    <t>id_table</t>
+  </si>
+  <si>
+    <t>Dictionnaire données</t>
+  </si>
+  <si>
+    <t>avis</t>
+  </si>
+  <si>
+    <t>Avis</t>
+  </si>
+  <si>
+    <t>Code mnémonique</t>
+  </si>
+  <si>
+    <t>Désignation</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Taille</t>
+  </si>
+  <si>
+    <t>Remarque</t>
+  </si>
+  <si>
+    <t>mdp</t>
+  </si>
+  <si>
+    <t>tel</t>
+  </si>
+  <si>
+    <t>mail</t>
+  </si>
+  <si>
+    <t>fid</t>
+  </si>
+  <si>
+    <t>intitule</t>
+  </si>
+  <si>
+    <t>intitule article</t>
+  </si>
+  <si>
+    <t>nb_couvert</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Le </t>
     </r>
     <r>
       <rPr>
@@ -864,346 +921,381 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>utilisateur</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.
+      <t>type de donnée</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> :</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphabétique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : lorsque la donnée est uniquement composée de caractères alphabétiques (de 'A' à 'Z' et de 'a' à 'z')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>N</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Numérique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : lorsque la donnée est composée uniquement de nombres (entiers ou réels)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ou </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Alphanumérique</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : lorsque la donnée peut être composée à la fois de caractères alphabétiques et numériques</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Date</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : lorsque la donnée est une date (au format AAAA-MM-JJ)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Booléen</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : Vrai ou Faux</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>optionel</t>
+  </si>
+  <si>
+    <t>obligatoire</t>
+  </si>
+  <si>
+    <t>role-employe</t>
+  </si>
+  <si>
+    <t>id_user</t>
+  </si>
+  <si>
+    <t>nom</t>
+  </si>
+  <si>
+    <t>prenom</t>
+  </si>
+  <si>
+    <t>Code postal</t>
+  </si>
+  <si>
+    <t>ad_post</t>
+  </si>
+  <si>
+    <t>code_post</t>
+  </si>
+  <si>
+    <t>Matricule</t>
+  </si>
+  <si>
+    <t>id_employe</t>
+  </si>
+  <si>
+    <t>Role</t>
+  </si>
+  <si>
+    <t>photo_dres</t>
+  </si>
+  <si>
+    <t>Liste information</t>
+  </si>
+  <si>
+    <t>probablement traité dans le logiciel</t>
+  </si>
+  <si>
+    <t>Consulter ses avis</t>
+  </si>
+  <si>
+    <t>int_article</t>
+  </si>
+  <si>
+    <t>Ingrd</t>
+  </si>
+  <si>
+    <t>prix</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>id_type</t>
+  </si>
+  <si>
+    <t>int_dres</t>
+  </si>
+  <si>
+    <t>Emplacement</t>
+  </si>
+  <si>
+    <t>num_tbl</t>
+  </si>
+  <si>
+    <t>position_tbl</t>
+  </si>
+  <si>
+    <t>larg_tbl</t>
+  </si>
+  <si>
+    <t>long_tbl</t>
+  </si>
+  <si>
+    <t>Forme</t>
+  </si>
+  <si>
+    <t>forme_tbl</t>
+  </si>
+  <si>
+    <t>Réservation</t>
+  </si>
+  <si>
+    <t>Commande</t>
+  </si>
+  <si>
+    <t>Une réservation est défini par:</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Un client est un utilisateur.
 Il peut :</t>
-    </r>
-  </si>
-  <si>
-    <t>Numéro table</t>
-  </si>
-  <si>
-    <t>coordonées</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>id_article</t>
-  </si>
-  <si>
-    <t>id_dressage</t>
-  </si>
-  <si>
-    <t>id_table</t>
-  </si>
-  <si>
-    <t>Dictionnaire données</t>
-  </si>
-  <si>
-    <t>avis</t>
-  </si>
-  <si>
-    <t>Avis</t>
-  </si>
-  <si>
-    <t>Code mnémonique</t>
-  </si>
-  <si>
-    <t>Désignation</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>Taille</t>
-  </si>
-  <si>
-    <t>Remarque</t>
-  </si>
-  <si>
-    <t>mdp</t>
-  </si>
-  <si>
-    <t>tel</t>
-  </si>
-  <si>
-    <t>mail</t>
-  </si>
-  <si>
-    <t>fid</t>
-  </si>
-  <si>
-    <t>intitule</t>
-  </si>
-  <si>
-    <t>Article</t>
-  </si>
-  <si>
-    <t>intitule article</t>
-  </si>
-  <si>
-    <t>nb_couvert</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Le </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type de donnée</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> :</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>A</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ou </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphabétique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : lorsque la donnée est uniquement composée de caractères alphabétiques (de 'A' à 'Z' et de 'a' à 'z')</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>N</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ou </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Numérique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : lorsque la donnée est composée uniquement de nombres (entiers ou réels)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>AN</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ou </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Alphanumérique</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : lorsque la donnée peut être composée à la fois de caractères alphabétiques et numériques</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Date</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : lorsque la donnée est une date (au format AAAA-MM-JJ)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Booléen</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> : Vrai ou Faux</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>optionel</t>
-  </si>
-  <si>
-    <t>obligatoire</t>
-  </si>
-  <si>
-    <t>role-employe</t>
-  </si>
-  <si>
-    <t>id_user</t>
-  </si>
-  <si>
-    <t>nom</t>
-  </si>
-  <si>
-    <t>prenom</t>
-  </si>
-  <si>
-    <t>Code postal</t>
-  </si>
-  <si>
-    <t>ad_post</t>
-  </si>
-  <si>
-    <t>code_post</t>
-  </si>
-  <si>
-    <t>Matricule</t>
-  </si>
-  <si>
-    <t>id_employe</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>photo_dres</t>
-  </si>
-  <si>
-    <t>Liste information</t>
-  </si>
-  <si>
-    <t>probablement traité dans le logiciel</t>
-  </si>
-  <si>
-    <t>Consulter ses avis</t>
-  </si>
-  <si>
-    <t>int_article</t>
-  </si>
-  <si>
-    <t>Ingrd</t>
-  </si>
-  <si>
-    <t>prix</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>id_type</t>
-  </si>
-  <si>
-    <t>int_dres</t>
-  </si>
-  <si>
-    <t>Emplacement</t>
-  </si>
-  <si>
-    <t>num_tbl</t>
-  </si>
-  <si>
-    <t>position_tbl</t>
-  </si>
-  <si>
-    <t>larg_tbl</t>
-  </si>
-  <si>
-    <t>long_tbl</t>
+  </si>
+  <si>
+    <t>Un employé est un utilisateur 
+Il peut :</t>
+  </si>
+  <si>
+    <t>emplacement</t>
+  </si>
+  <si>
+    <t>Reservation</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Une commande est défini par:</t>
+  </si>
+  <si>
+    <t>obligatoire 
+liste : entree  / plat /dessert / boisson</t>
+  </si>
+  <si>
+    <t>obligatoire 
+valeur par defaut :  réserve</t>
+  </si>
+  <si>
+    <t>obligatoire 
+liste : rond / rectangle</t>
+  </si>
+  <si>
+    <t>Numéro de table</t>
+  </si>
+  <si>
+    <t>Emplacement de table</t>
+  </si>
+  <si>
+    <t>numéro de reservation</t>
+  </si>
+  <si>
+    <t>num_res</t>
+  </si>
+  <si>
+    <r>
+      <t>DateTime</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> : lorsque la donnée est une date et une heure (au format AAAA-MM-JJ hh:mm:ss)</t>
+    </r>
+  </si>
+  <si>
+    <t>DateTime</t>
+  </si>
+  <si>
+    <t>id_reser</t>
+  </si>
+  <si>
+    <t>num_cmd</t>
+  </si>
+  <si>
+    <t>id_cmd</t>
+  </si>
+  <si>
+    <t>numero de commande</t>
+  </si>
+  <si>
+    <t>Date enregistrement</t>
+  </si>
+  <si>
+    <t>date_reg</t>
+  </si>
+  <si>
+    <t>Date reservation</t>
+  </si>
+  <si>
+    <t>date_res</t>
+  </si>
+  <si>
+    <t>date système</t>
+  </si>
+  <si>
+    <t>date saisie utilisateur</t>
+  </si>
+  <si>
+    <t>Plusieurs plats et boisson</t>
+  </si>
+  <si>
+    <t>lecture</t>
+  </si>
+  <si>
+    <t>ecriture</t>
+  </si>
+  <si>
+    <t>Relation</t>
+  </si>
+  <si>
+    <t>Droit</t>
+  </si>
+  <si>
+    <t>relation</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1242,8 +1334,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1255,80 +1355,18 @@
         <fgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="9">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1388,12 +1426,42 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color rgb="FFA3A3A3"/>
+      </right>
       <top style="medium">
+        <color theme="0" tint="-0.14996795556505021"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0" tint="-0.14993743705557422"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
         <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFA3A3A3"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1409,25 +1477,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color theme="0" tint="-0.14996795556505021"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1438,29 +1494,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1468,16 +1506,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1488,33 +1520,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1529,26 +1534,66 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Accent1" xfId="1" builtinId="29"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Vérification" xfId="2" builtinId="23"/>
   </cellStyles>
   <dxfs count="3">
     <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1564,22 +1609,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}" name="Tableau1" displayName="Tableau1" ref="B1:G28" totalsRowShown="0" headerRowDxfId="0" headerRowCellStyle="Accent1">
-  <autoFilter ref="B1:G28" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}" name="Tableau1" displayName="Tableau1" ref="B1:I34" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="Accent1">
+  <autoFilter ref="B1:I34" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
     <filterColumn colId="3" hiddenButton="1"/>
     <filterColumn colId="4" hiddenButton="1"/>
     <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="6">
+  <tableColumns count="8">
+    <tableColumn id="7" xr3:uid="{8A649416-590D-4C41-B365-65ED8C5529B5}" name="id_reser"/>
+    <tableColumn id="8" xr3:uid="{BD4F5145-CB56-4C2A-BC3B-A1E2A26D0098}" name="id_cmd"/>
     <tableColumn id="1" xr3:uid="{BE27EC98-A4DB-4FA6-9630-0CF682D9037B}" name="id_employe"/>
     <tableColumn id="2" xr3:uid="{84AFEBF2-0BB8-42A2-A499-9EB32C395BD4}" name="id_user"/>
     <tableColumn id="3" xr3:uid="{1D8A2D89-4CC6-4F36-B522-822A3C56F2E9}" name="id_article"/>
     <tableColumn id="4" xr3:uid="{6219D263-EBFC-4FBC-9197-2F1C0D2628EC}" name="id_type"/>
-    <tableColumn id="5" xr3:uid="{BA7314F1-69C5-4F44-B0F8-BBAF38AEA53E}" name="id_dressage" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{B2577235-40AA-4C37-866B-D84319F56785}" name="id_table" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BA7314F1-69C5-4F44-B0F8-BBAF38AEA53E}" name="id_dressage" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B2577235-40AA-4C37-866B-D84319F56785}" name="id_table" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2036,359 +2085,594 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4C60F5-7BF8-4163-A9BD-A44ED49DFD65}">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="36.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="5"/>
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30"/>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="5"/>
-      <c r="B4" s="9" t="s">
+    <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="30"/>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="9" t="s">
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="30"/>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="5"/>
-      <c r="B6" s="9" t="s">
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="30"/>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="5"/>
-      <c r="B7" s="9" t="s">
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="30"/>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="5"/>
-      <c r="B8" s="9" t="s">
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="30"/>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="5"/>
-      <c r="B9" s="9" t="s">
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="30"/>
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="9" t="s">
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="30"/>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="10"/>
-    </row>
-    <row r="12" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="11" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="9" t="s">
+      <c r="B11" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30"/>
+      <c r="B12" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="9" t="s">
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="30"/>
+      <c r="B13" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="9" t="s">
+    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="30"/>
+      <c r="B14" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9" t="s">
+    <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="30"/>
+      <c r="B15" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9" t="s">
+    <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="30"/>
+      <c r="B16" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="9" t="s">
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
+      <c r="B17" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="9" t="s">
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="30"/>
+      <c r="B18" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="9" t="s">
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30"/>
+      <c r="B19" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="9" t="s">
+    <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="30"/>
+      <c r="B20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9" t="s">
+    <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="30"/>
+      <c r="B21" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9" t="s">
+    <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="30"/>
+      <c r="B22" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="4" t="s">
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="30"/>
+      <c r="B23" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="9" t="s">
+      <c r="B24" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="30"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="9" t="s">
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="30"/>
+      <c r="B26" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="9" t="s">
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="30"/>
+      <c r="B27" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="9" t="s">
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="30"/>
+      <c r="B28" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="9" t="s">
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="30"/>
+      <c r="B29" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="5"/>
-      <c r="B31" s="9" t="s">
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="30"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="5"/>
-      <c r="B32" s="9" t="s">
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="30"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="10" t="s">
+    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="30"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="4" t="s">
+    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B34" s="8" t="s">
+      <c r="B33" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" s="20" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="5"/>
-      <c r="B35" s="9" t="s">
+    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="30"/>
+      <c r="B34" s="4">
+        <v>1</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="5"/>
-      <c r="B36" s="9" t="s">
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="30"/>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="9" t="s">
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="30"/>
+      <c r="B36" s="4">
+        <v>1</v>
+      </c>
+      <c r="C36" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4" t="s">
+    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B37" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C37" s="20" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="5"/>
-      <c r="B39" s="9" t="s">
+    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="29"/>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="5"/>
-      <c r="B40" s="9" t="s">
+    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="29"/>
+      <c r="B39" s="4">
+        <v>1</v>
+      </c>
+      <c r="C39" s="4" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="5"/>
-      <c r="B41" s="9" t="s">
+    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="4">
+        <v>1</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="6"/>
-      <c r="B42" s="8" t="s">
+    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="30" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B43" s="8" t="s">
+      <c r="B41" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C41" s="20" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="5"/>
-      <c r="B44" s="9" t="s">
+    <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="30"/>
+      <c r="B42" s="4">
+        <v>1</v>
+      </c>
+      <c r="C42" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="9" t="s">
+    <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="30"/>
+      <c r="B43" s="4">
+        <v>1</v>
+      </c>
+      <c r="C43" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="4" t="s">
+    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="B46" s="8" t="s">
+      <c r="B44" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C44" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="5"/>
-      <c r="B47" s="9" t="s">
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="30"/>
+      <c r="B45" s="4">
+        <v>1</v>
+      </c>
+      <c r="C45" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="48" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="5"/>
-      <c r="B48" s="9" t="s">
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="30"/>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="5"/>
-      <c r="B49" s="8" t="s">
+    <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="30"/>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="30"/>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="50" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="9" t="s">
+    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="30"/>
+      <c r="B49" s="4">
+        <v>1</v>
+      </c>
+      <c r="C49" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="51" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="4" t="s">
+    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="29"/>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="29"/>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="29"/>
+      <c r="B53" s="4">
+        <v>1</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="29"/>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="29"/>
+      <c r="B55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="B56" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="20" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="29"/>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="29"/>
+      <c r="B58" s="31">
+        <v>1</v>
+      </c>
+      <c r="C58" s="31" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="29"/>
+      <c r="B59" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="31" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="29"/>
+      <c r="B60" s="32">
+        <v>1</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B61" s="20"/>
+      <c r="C61" s="20" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="52" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="9" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="7"/>
-      <c r="B53" s="7"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-    </row>
+    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="30"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A46:A50"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A2:A11"/>
-    <mergeCell ref="A12:A24"/>
-    <mergeCell ref="A25:A33"/>
-    <mergeCell ref="A34:A37"/>
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A45"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A10"/>
+    <mergeCell ref="A11:A23"/>
+    <mergeCell ref="A24:A32"/>
+    <mergeCell ref="A33:A36"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="A56:A60"/>
+    <mergeCell ref="A37:A40"/>
+    <mergeCell ref="A50:A55"/>
+    <mergeCell ref="A44:A49"/>
+    <mergeCell ref="A61:A62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2396,463 +2680,513 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203D0B1D-CA3D-4693-9CEF-175A4E4EA94D}">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:C25"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
     <col min="2" max="2" width="36.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="41.7109375" customWidth="1"/>
+    <col min="6" max="6" width="41.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D2" s="13" t="s">
+    </row>
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="C4" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="C7" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="8" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="15" t="s">
+      <c r="C8" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D3" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="16"/>
-      <c r="B4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="C9" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="D4" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="16"/>
-      <c r="B5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="26" t="s">
+      <c r="C11" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="16"/>
-      <c r="B6" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6" s="26" t="s">
+    </row>
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="16"/>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="14" t="s">
+    </row>
+    <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="16"/>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>87</v>
-      </c>
-      <c r="D8" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="16"/>
-      <c r="B9" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="D9" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="16"/>
-      <c r="B10" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C10" s="14" t="s">
+      <c r="B19" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B20" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="D10" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="16"/>
-      <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="14" t="s">
+      <c r="C20" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D21" s="8"/>
+      <c r="E21" s="8"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="D11" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="16"/>
-      <c r="B12" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="16"/>
-      <c r="B14" s="14" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="D14" s="26" t="s">
+      <c r="C22" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+    </row>
+    <row r="23" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="8"/>
+      <c r="E28" s="8"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>145</v>
+      </c>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="26" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="C30" s="27" t="s">
+        <v>145</v>
+      </c>
+      <c r="D30" s="26"/>
+      <c r="E30" s="26" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="11"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="8" t="s">
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="8"/>
-      <c r="F15" s="15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="D17" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="D18" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="14" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="6"/>
-      <c r="B20" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="D20" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D21" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="C22" s="9" t="s">
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D22" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-    </row>
-    <row r="23" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="C23" s="21" t="s">
-        <v>126</v>
-      </c>
-      <c r="D23" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-    </row>
-    <row r="24" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>127</v>
-      </c>
-      <c r="D24" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-    </row>
-    <row r="25" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="17"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="18" t="s">
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="20" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="12"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="20" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
-        <v>98</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A3:A14"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A20"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2860,10 +3194,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537CB443-417B-43F4-BE82-9F165FCDB729}">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2874,522 +3208,645 @@
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="C1" s="36" t="s">
+    <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
+      <c r="B1" s="28" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="H1" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="I1" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="H2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="B3" s="6">
+        <v>1</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="B4" s="6">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="B5" s="6">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="B7" s="6"/>
+      <c r="C7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
+        <v>1</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="B10" s="6">
+        <v>1</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
+      <c r="Q12" s="6"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
+      <c r="Q13" s="6"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
+      <c r="Q14" s="6"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="36" t="s">
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
+      <c r="Q16" s="6"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
+      <c r="Q17" s="6"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
+      <c r="Q18" s="6"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="12" t="s">
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
+      <c r="Q19" s="6"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
+      <c r="Q20" s="6"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6">
+        <v>1</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
+      <c r="Q21" s="6"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6">
+        <v>1</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
+      <c r="Q22" s="6"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6">
+        <v>1</v>
+      </c>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
+      <c r="Q23" s="6"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6">
+        <v>1</v>
+      </c>
+      <c r="G24" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6">
+        <v>1</v>
+      </c>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="6"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="H26" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="I26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="H27" s="6">
+        <v>1</v>
+      </c>
+      <c r="I27" s="6"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6">
+        <v>1</v>
+      </c>
+      <c r="I28" s="6"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="12">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="31" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="C4" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="12"/>
-      <c r="Q4" s="12"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
-        <v>85</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12">
-        <v>1</v>
-      </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="12"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12">
-        <v>1</v>
-      </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>86</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12">
-        <v>1</v>
-      </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>87</v>
-      </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12">
-        <v>1</v>
-      </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="12"/>
-      <c r="G9" s="12"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12">
-        <v>1</v>
-      </c>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12">
-        <v>1</v>
-      </c>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="12"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="12"/>
-      <c r="O11" s="12"/>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
-        <v>88</v>
-      </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12">
-        <v>1</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
-        <v>78</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12">
-        <v>1</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="12"/>
-      <c r="O13" s="12"/>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12">
-        <v>1</v>
-      </c>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12">
-        <v>1</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="12"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="12"/>
-      <c r="O16" s="12"/>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12">
-        <v>1</v>
-      </c>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="12"/>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="32" t="s">
-        <v>122</v>
-      </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12">
-        <v>1</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="12"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="12"/>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12">
-        <v>1</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="12"/>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="12"/>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12">
-        <v>1</v>
-      </c>
-      <c r="G21" s="12"/>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12">
-        <v>1</v>
-      </c>
-      <c r="G22" s="12"/>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+      <c r="B29" s="6">
+        <v>1</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="31" t="s">
+      <c r="H31" s="6"/>
+      <c r="I31" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="F26" s="12"/>
-      <c r="G26" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="31" t="s">
+      <c r="H32" s="6"/>
+      <c r="I32" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="F27" s="12"/>
-      <c r="G27" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="12"/>
-      <c r="G28" s="12">
+      <c r="H33" s="6"/>
+      <c r="I33" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6">
         <v>1</v>
       </c>
     </row>

--- a/Ananlyse/Analyse_fonctionnel_exercice_2.xlsx
+++ b/Ananlyse/Analyse_fonctionnel_exercice_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezli\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7ADB598B-DDD8-4F5D-B1EB-BA9A66A39BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A57B0-A725-4273-BDCC-76C4DB616D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{EFE59B70-18CE-49EE-88A6-987DE46377F7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EFE59B70-18CE-49EE-88A6-987DE46377F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Enoncé" sheetId="1" r:id="rId1"/>
@@ -1243,9 +1243,6 @@
     <t>DateTime</t>
   </si>
   <si>
-    <t>id_reser</t>
-  </si>
-  <si>
     <t>num_cmd</t>
   </si>
   <si>
@@ -1289,6 +1286,9 @@
   </si>
   <si>
     <t>relation</t>
+  </si>
+  <si>
+    <t>id_res</t>
   </si>
 </sst>
 </file>
@@ -1621,8 +1621,8 @@
     <filterColumn colId="7" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="8">
-    <tableColumn id="7" xr3:uid="{8A649416-590D-4C41-B365-65ED8C5529B5}" name="id_reser"/>
-    <tableColumn id="8" xr3:uid="{BD4F5145-CB56-4C2A-BC3B-A1E2A26D0098}" name="id_cmd"/>
+    <tableColumn id="8" xr3:uid="{BD4F5145-CB56-4C2A-BC3B-A1E2A26D0098}" name="id_cmd" dataCellStyle="Accent1"/>
+    <tableColumn id="7" xr3:uid="{8A649416-590D-4C41-B365-65ED8C5529B5}" name="id_res"/>
     <tableColumn id="1" xr3:uid="{BE27EC98-A4DB-4FA6-9630-0CF682D9037B}" name="id_employe"/>
     <tableColumn id="2" xr3:uid="{84AFEBF2-0BB8-42A2-A499-9EB32C395BD4}" name="id_user"/>
     <tableColumn id="3" xr3:uid="{1D8A2D89-4CC6-4F36-B522-822A3C56F2E9}" name="id_article"/>
@@ -2087,7 +2087,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4C60F5-7BF8-4163-A9BD-A44ED49DFD65}">
   <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -2108,7 +2108,7 @@
         <v>21</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>22</v>
@@ -2191,7 +2191,7 @@
         <v>31</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C11" s="20" t="s">
         <v>131</v>
@@ -2200,7 +2200,7 @@
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30"/>
       <c r="B12" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
@@ -2209,7 +2209,7 @@
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30"/>
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>33</v>
@@ -2218,7 +2218,7 @@
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="30"/>
       <c r="B14" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>34</v>
@@ -2227,7 +2227,7 @@
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30"/>
       <c r="B15" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>35</v>
@@ -2236,7 +2236,7 @@
     <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>36</v>
@@ -2245,7 +2245,7 @@
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>37</v>
@@ -2254,7 +2254,7 @@
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="30"/>
       <c r="B18" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>38</v>
@@ -2263,7 +2263,7 @@
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30"/>
       <c r="B19" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>39</v>
@@ -2272,7 +2272,7 @@
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30"/>
       <c r="B20" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>40</v>
@@ -2281,7 +2281,7 @@
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30"/>
       <c r="B21" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>41</v>
@@ -2290,7 +2290,7 @@
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30"/>
       <c r="B22" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>42</v>
@@ -2299,7 +2299,7 @@
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30"/>
       <c r="B23" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C23" s="4" t="s">
         <v>113</v>
@@ -2310,7 +2310,7 @@
         <v>43</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>132</v>
@@ -2326,7 +2326,7 @@
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30"/>
       <c r="B26" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
@@ -2335,7 +2335,7 @@
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30"/>
       <c r="B27" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>46</v>
@@ -2344,7 +2344,7 @@
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30"/>
       <c r="B28" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>47</v>
@@ -2353,7 +2353,7 @@
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30"/>
       <c r="B29" s="4" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>48</v>
@@ -2385,7 +2385,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C33" s="20" t="s">
         <v>53</v>
@@ -2423,7 +2423,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C37" s="20" t="s">
         <v>57</v>
@@ -2461,7 +2461,7 @@
         <v>58</v>
       </c>
       <c r="B41" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C41" s="20" t="s">
         <v>59</v>
@@ -2490,7 +2490,7 @@
         <v>61</v>
       </c>
       <c r="B44" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" s="20" t="s">
         <v>62</v>
@@ -2546,7 +2546,7 @@
         <v>127</v>
       </c>
       <c r="B50" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C50" s="20" t="s">
         <v>129</v>
@@ -2602,7 +2602,7 @@
         <v>128</v>
       </c>
       <c r="B56" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C56" s="20" t="s">
         <v>136</v>
@@ -2632,7 +2632,7 @@
         <v>96</v>
       </c>
       <c r="C59" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2682,7 +2682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203D0B1D-CA3D-4693-9CEF-175A4E4EA94D}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
@@ -3080,10 +3080,10 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C28" s="22" t="s">
         <v>96</v>
@@ -3093,32 +3093,32 @@
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>152</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>153</v>
       </c>
       <c r="C29" s="22" t="s">
         <v>145</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="26" t="s">
+        <v>149</v>
+      </c>
+      <c r="B30" s="26" t="s">
         <v>150</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>151</v>
       </c>
       <c r="C30" s="27" t="s">
         <v>145</v>
       </c>
       <c r="D30" s="26"/>
       <c r="E30" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3196,8 +3196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537CB443-417B-43F4-BE82-9F165FCDB729}">
   <dimension ref="A1:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3210,10 +3210,10 @@
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
       <c r="B1" s="28" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>108</v>
@@ -3244,7 +3244,7 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>70</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -3282,12 +3282,14 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>70</v>
+      </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -3301,11 +3303,14 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
@@ -3317,13 +3322,11 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>70</v>
+        <v>150</v>
+      </c>
+      <c r="B6" s="6"/>
+      <c r="C6" s="6">
+        <v>1</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -3338,14 +3341,11 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="B7" s="6"/>
+        <v>152</v>
+      </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -3397,10 +3397,10 @@
       <c r="A10" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B10" s="6">
-        <v>1</v>
-      </c>
-      <c r="C10" s="6"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6">
+        <v>1</v>
+      </c>
       <c r="D10" s="6">
         <v>1</v>
       </c>
@@ -3792,10 +3792,10 @@
       <c r="A29" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="6">
-        <v>1</v>
-      </c>
-      <c r="C29" s="21"/>
+      <c r="B29" s="21"/>
+      <c r="C29" s="6">
+        <v>1</v>
+      </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>

--- a/Ananlyse/Analyse_fonctionnel_exercice_2.xlsx
+++ b/Ananlyse/Analyse_fonctionnel_exercice_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezli\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D56A57B0-A725-4273-BDCC-76C4DB616D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A86A9-6129-4EAE-9884-821B6924C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EFE59B70-18CE-49EE-88A6-987DE46377F7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="162">
   <si>
     <t>Bonjour Azzouz,</t>
   </si>
@@ -849,18 +849,12 @@
     <t>Un plan est défini par :</t>
   </si>
   <si>
-    <t>Numéro table</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
     <t>id_article</t>
   </si>
   <si>
-    <t>id_dressage</t>
-  </si>
-  <si>
     <t>id_table</t>
   </si>
   <si>
@@ -1101,12 +1095,6 @@
   </si>
   <si>
     <t>Code postal</t>
-  </si>
-  <si>
-    <t>ad_post</t>
-  </si>
-  <si>
-    <t>code_post</t>
   </si>
   <si>
     <t>Matricule</t>
@@ -1189,9 +1177,6 @@
 Il peut :</t>
   </si>
   <si>
-    <t>emplacement</t>
-  </si>
-  <si>
     <t>Reservation</t>
   </si>
   <si>
@@ -1289,6 +1274,21 @@
   </si>
   <si>
     <t>id_res</t>
+  </si>
+  <si>
+    <t>adr_postl</t>
+  </si>
+  <si>
+    <t>code_postl</t>
+  </si>
+  <si>
+    <t>Commentaire</t>
+  </si>
+  <si>
+    <t>Un commentaire est défini par:</t>
+  </si>
+  <si>
+    <t>id_dres</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1483,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1536,9 +1536,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -1593,7 +1590,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1609,8 +1606,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}" name="Tableau1" displayName="Tableau1" ref="B1:I34" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="Accent1">
-  <autoFilter ref="B1:I34" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}" name="Tableau1" displayName="Tableau1" ref="B1:I35" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="Accent1">
+  <autoFilter ref="B1:I35" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1627,7 +1624,7 @@
     <tableColumn id="2" xr3:uid="{84AFEBF2-0BB8-42A2-A499-9EB32C395BD4}" name="id_user"/>
     <tableColumn id="3" xr3:uid="{1D8A2D89-4CC6-4F36-B522-822A3C56F2E9}" name="id_article"/>
     <tableColumn id="4" xr3:uid="{6219D263-EBFC-4FBC-9197-2F1C0D2628EC}" name="id_type"/>
-    <tableColumn id="5" xr3:uid="{BA7314F1-69C5-4F44-B0F8-BBAF38AEA53E}" name="id_dressage" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{BA7314F1-69C5-4F44-B0F8-BBAF38AEA53E}" name="id_dres" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{B2577235-40AA-4C37-866B-D84319F56785}" name="id_table" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1934,7 +1931,7 @@
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2085,10 +2082,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4C60F5-7BF8-4163-A9BD-A44ED49DFD65}">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2100,22 +2097,22 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B2" s="19" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="19" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="30"/>
+      <c r="A3" s="29"/>
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -2124,7 +2121,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="30"/>
+      <c r="A4" s="29"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
@@ -2133,7 +2130,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
+      <c r="A5" s="29"/>
       <c r="B5" s="4">
         <v>1</v>
       </c>
@@ -2142,7 +2139,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
+      <c r="A6" s="29"/>
       <c r="B6" s="4">
         <v>1</v>
       </c>
@@ -2151,7 +2148,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
+      <c r="A7" s="29"/>
       <c r="B7" s="4">
         <v>1</v>
       </c>
@@ -2160,7 +2157,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="4">
         <v>1</v>
       </c>
@@ -2169,7 +2166,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="4">
         <v>1</v>
       </c>
@@ -2178,7 +2175,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
+      <c r="A10" s="29"/>
       <c r="B10" s="4">
         <v>1</v>
       </c>
@@ -2187,212 +2184,212 @@
       </c>
     </row>
     <row r="11" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>131</v>
+      <c r="B11" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
+      <c r="A17" s="29"/>
       <c r="B17" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
+      <c r="A18" s="29"/>
       <c r="B18" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C18" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
+      <c r="A19" s="29"/>
       <c r="B19" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C19" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
+      <c r="A23" s="29"/>
       <c r="B23" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="30" t="s">
+      <c r="A24" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>132</v>
+      <c r="B24" s="19" t="s">
+        <v>154</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
+      <c r="A25" s="29"/>
       <c r="B25" s="4"/>
       <c r="C25" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="30"/>
+      <c r="A26" s="29"/>
       <c r="B26" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C26" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="30"/>
+      <c r="A27" s="29"/>
       <c r="B27" s="4" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C27" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="30"/>
+      <c r="A28" s="29"/>
       <c r="B28" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="30"/>
+      <c r="A29" s="29"/>
       <c r="B29" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C29" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="30"/>
+      <c r="A30" s="29"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="30"/>
+      <c r="A31" s="29"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="30"/>
+      <c r="A32" s="29"/>
       <c r="B32" s="5"/>
       <c r="C32" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="30" t="s">
+      <c r="A33" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C33" s="20" t="s">
+      <c r="B33" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C33" s="19" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="30"/>
+      <c r="A34" s="29"/>
       <c r="B34" s="4">
         <v>1</v>
       </c>
@@ -2401,7 +2398,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="30"/>
+      <c r="A35" s="29"/>
       <c r="B35" s="4">
         <v>1</v>
       </c>
@@ -2410,7 +2407,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="30"/>
+      <c r="A36" s="29"/>
       <c r="B36" s="4">
         <v>1</v>
       </c>
@@ -2419,18 +2416,18 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="29" t="s">
+      <c r="A37" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C37" s="20" t="s">
+      <c r="B37" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="29"/>
+      <c r="A38" s="28"/>
       <c r="B38" s="4">
         <v>1</v>
       </c>
@@ -2439,7 +2436,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="29"/>
+      <c r="A39" s="28"/>
       <c r="B39" s="4">
         <v>1</v>
       </c>
@@ -2448,7 +2445,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
+      <c r="A40" s="28"/>
       <c r="B40" s="4">
         <v>1</v>
       </c>
@@ -2457,18 +2454,18 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="30" t="s">
+      <c r="A41" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="B41" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C41" s="20" t="s">
+      <c r="B41" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C41" s="19" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="30"/>
+      <c r="A42" s="29"/>
       <c r="B42" s="4">
         <v>1</v>
       </c>
@@ -2477,7 +2474,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="30"/>
+      <c r="A43" s="29"/>
       <c r="B43" s="4">
         <v>1</v>
       </c>
@@ -2486,18 +2483,18 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="30" t="s">
+      <c r="A44" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C44" s="20" t="s">
+      <c r="B44" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C44" s="19" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="30"/>
+      <c r="A45" s="29"/>
       <c r="B45" s="4">
         <v>1</v>
       </c>
@@ -2506,7 +2503,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="30"/>
+      <c r="A46" s="29"/>
       <c r="B46" s="4">
         <v>1</v>
       </c>
@@ -2515,16 +2512,16 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="30"/>
+      <c r="A47" s="29"/>
       <c r="B47" s="4">
         <v>1</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="30"/>
+      <c r="A48" s="29"/>
       <c r="B48" s="4">
         <v>1</v>
       </c>
@@ -2533,7 +2530,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="30"/>
+      <c r="A49" s="29"/>
       <c r="B49" s="4">
         <v>1</v>
       </c>
@@ -2542,18 +2539,18 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="29" t="s">
-        <v>127</v>
-      </c>
-      <c r="B50" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C50" s="20" t="s">
-        <v>129</v>
+      <c r="A50" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C50" s="19" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
+      <c r="A51" s="28"/>
       <c r="B51" s="4">
         <v>1</v>
       </c>
@@ -2562,16 +2559,16 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
+      <c r="A52" s="28"/>
       <c r="B52" s="4">
         <v>1</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="29"/>
+      <c r="A53" s="28"/>
       <c r="B53" s="4">
         <v>1</v>
       </c>
@@ -2580,7 +2577,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="28"/>
       <c r="B54" s="4">
         <v>1</v>
       </c>
@@ -2589,80 +2586,106 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="28"/>
       <c r="B55" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="29" t="s">
-        <v>128</v>
-      </c>
-      <c r="B56" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>136</v>
+      <c r="A56" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" s="19" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="29"/>
+      <c r="A57" s="28"/>
       <c r="B57" s="4">
         <v>1</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
-      <c r="B58" s="31">
-        <v>1</v>
-      </c>
-      <c r="C58" s="31" t="s">
-        <v>134</v>
+      <c r="A58" s="28"/>
+      <c r="B58" s="30">
+        <v>1</v>
+      </c>
+      <c r="C58" s="30" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
-      <c r="B59" s="31" t="s">
-        <v>96</v>
-      </c>
-      <c r="C59" s="31" t="s">
-        <v>155</v>
+      <c r="A59" s="28"/>
+      <c r="B59" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="C59" s="30" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="29"/>
-      <c r="B60" s="32">
+      <c r="A60" s="28"/>
+      <c r="B60" s="31">
         <v>1</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="30" t="s">
+      <c r="A61" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="20"/>
-      <c r="C61" s="20" t="s">
+      <c r="B61" s="19"/>
+      <c r="C61" s="19" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="30"/>
+      <c r="A62" s="29"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+        <v>108</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="C63" s="19" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="29"/>
+      <c r="B64" s="30"/>
+      <c r="C64" s="30" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="29"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="A63:A65"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A23"/>
     <mergeCell ref="A24:A32"/>
@@ -2683,7 +2706,7 @@
   <dimension ref="A1:E46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2697,24 +2720,24 @@
   <sheetData>
     <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2722,14 +2745,14 @@
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>97</v>
+        <v>99</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2737,14 +2760,14 @@
         <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C4" s="22" t="s">
-        <v>97</v>
+        <v>80</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2752,14 +2775,14 @@
         <v>25</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5" s="22" t="s">
-        <v>95</v>
+        <v>100</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2767,14 +2790,14 @@
         <v>26</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="22" t="s">
-        <v>95</v>
+        <v>101</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2782,14 +2805,14 @@
         <v>27</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>97</v>
+        <v>81</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2797,10 +2820,10 @@
         <v>28</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>97</v>
+        <v>82</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
@@ -2810,29 +2833,29 @@
         <v>29</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>97</v>
+        <v>157</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>97</v>
+        <v>158</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2840,70 +2863,70 @@
         <v>30</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>97</v>
+        <v>83</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C12" s="22" t="s">
-        <v>97</v>
+        <v>73</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>97</v>
+        <v>104</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C14" s="22" t="s">
-        <v>95</v>
+        <v>98</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D14" s="8"/>
       <c r="E14" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>95</v>
+        <v>110</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2911,14 +2934,14 @@
         <v>54</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>95</v>
+        <v>111</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2926,44 +2949,44 @@
         <v>55</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>96</v>
+        <v>112</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>97</v>
+        <v>113</v>
+      </c>
+      <c r="C18" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="C19" s="22" t="s">
-        <v>95</v>
+        <v>115</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D19" s="8"/>
       <c r="E19" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2971,25 +2994,25 @@
         <v>60</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C20" s="22" t="s">
-        <v>97</v>
+        <v>106</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C21" s="22" t="s">
-        <v>97</v>
+        <v>117</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
@@ -2999,44 +3022,44 @@
         <v>64</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="C22" s="22" t="s">
-        <v>96</v>
+        <v>86</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>97</v>
+        <v>118</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>95</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>126</v>
-      </c>
-      <c r="C24" s="22" t="s">
-        <v>95</v>
+        <v>122</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>93</v>
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3044,81 +3067,81 @@
         <v>65</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C25" s="22" t="s">
-        <v>96</v>
+        <v>119</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
+      <c r="B26" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="C26" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="24" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
+      <c r="A27" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="B27" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C27" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C28" s="22" t="s">
-        <v>96</v>
+        <v>141</v>
+      </c>
+      <c r="C28" s="21" t="s">
+        <v>94</v>
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="22" t="s">
-        <v>145</v>
+        <v>147</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>140</v>
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="26" t="s">
+      <c r="A30" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25" t="s">
         <v>149</v>
-      </c>
-      <c r="B30" s="26" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="27" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -3135,7 +3158,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -3143,7 +3166,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="12" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -3151,7 +3174,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -3159,7 +3182,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -3167,7 +3190,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -3175,7 +3198,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3183,7 +3206,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3194,10 +3217,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537CB443-417B-43F4-BE82-9F165FCDB729}">
-  <dimension ref="A1:Q34"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3209,29 +3232,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="C1" s="28" t="s">
+      <c r="B1" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>156</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>114</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="F1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>71</v>
-      </c>
-      <c r="G1" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>72</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>73</v>
       </c>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -3244,10 +3267,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="6"/>
       <c r="H2" s="6"/>
@@ -3263,7 +3286,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B3" s="6">
         <v>1</v>
@@ -3282,13 +3305,13 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B4" s="6">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -3303,7 +3326,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B5" s="6"/>
       <c r="C5" s="6">
@@ -3322,7 +3345,7 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -3341,7 +3364,7 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
@@ -3357,12 +3380,12 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" s="6"/>
       <c r="J8" s="6"/>
@@ -3376,7 +3399,7 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -3395,7 +3418,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -3405,7 +3428,7 @@
         <v>1</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
@@ -3422,7 +3445,7 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -3445,7 +3468,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -3468,7 +3491,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -3491,7 +3514,7 @@
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -3514,7 +3537,7 @@
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -3537,7 +3560,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>105</v>
+        <v>157</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -3560,7 +3583,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>106</v>
+        <v>158</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -3583,7 +3606,7 @@
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -3602,14 +3625,15 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
+        <v>73</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1</v>
+      </c>
       <c r="D19" s="6"/>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
+      <c r="E19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
       <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
@@ -3621,14 +3645,14 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" s="15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6"/>
       <c r="F20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="6"/>
@@ -3644,7 +3668,7 @@
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" s="16" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -3667,7 +3691,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -3690,7 +3714,7 @@
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -3713,7 +3737,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="15" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
@@ -3723,7 +3747,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6"/>
@@ -3736,7 +3760,7 @@
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6"/>
@@ -3746,29 +3770,21 @@
       <c r="G25" s="6">
         <v>1</v>
       </c>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>72</v>
+        <v>161</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6"/>
       <c r="H26" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I26" s="6"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" s="16" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6"/>
@@ -3779,7 +3795,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6"/>
@@ -3790,9 +3806,9 @@
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B29" s="21"/>
+        <v>71</v>
+      </c>
+      <c r="B29" s="20"/>
       <c r="C29" s="6">
         <v>1</v>
       </c>
@@ -3800,12 +3816,12 @@
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
@@ -3825,7 +3841,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>65</v>
+        <v>119</v>
       </c>
       <c r="H32" s="6"/>
       <c r="I32" s="6">
@@ -3834,7 +3850,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>66</v>
+        <v>120</v>
       </c>
       <c r="H33" s="6"/>
       <c r="I33" s="6">
@@ -3843,17 +3859,27 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="H34" s="6"/>
       <c r="I34" s="6">
         <v>1</v>
       </c>
     </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Ananlyse/Analyse_fonctionnel_exercice_2.xlsx
+++ b/Ananlyse/Analyse_fonctionnel_exercice_2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mezli\OneDrive\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{573A86A9-6129-4EAE-9884-821B6924C0D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36109A66-F169-403C-8D54-6892E6B7C37A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{EFE59B70-18CE-49EE-88A6-987DE46377F7}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="171">
   <si>
     <t>Bonjour Azzouz,</t>
   </si>
@@ -1289,6 +1289,34 @@
   </si>
   <si>
     <t>id_dres</t>
+  </si>
+  <si>
+    <t>plat</t>
+  </si>
+  <si>
+    <t>matricule</t>
+  </si>
+  <si>
+    <t>Un employé est défini par:</t>
+  </si>
+  <si>
+    <t>Tiers</t>
+  </si>
+  <si>
+    <t>Identifiant de tiers</t>
+  </si>
+  <si>
+    <t>id_tiers</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>obligatoire
+unique</t>
+  </si>
+  <si>
+    <t>login</t>
   </si>
 </sst>
 </file>
@@ -1483,7 +1511,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1521,27 +1549,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1561,20 +1570,43 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="2" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1582,15 +1614,113 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Vérification" xfId="2" builtinId="23"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="13">
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1606,8 +1736,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}" name="Tableau1" displayName="Tableau1" ref="B1:I35" totalsRowShown="0" headerRowDxfId="2" headerRowCellStyle="Accent1">
-  <autoFilter ref="B1:I35" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}" name="Tableau1" displayName="Tableau1" ref="A1:K38" totalsRowShown="0" headerRowDxfId="2" dataDxfId="1" headerRowCellStyle="Accent1">
+  <autoFilter ref="A1:K38" xr:uid="{0E37A399-336E-42EF-943E-272E3984C688}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -1616,18 +1746,24 @@
     <filterColumn colId="5" hiddenButton="1"/>
     <filterColumn colId="6" hiddenButton="1"/>
     <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+    <filterColumn colId="9" hiddenButton="1"/>
+    <filterColumn colId="10" hiddenButton="1"/>
   </autoFilter>
-  <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{BD4F5145-CB56-4C2A-BC3B-A1E2A26D0098}" name="id_cmd" dataCellStyle="Accent1"/>
-    <tableColumn id="7" xr3:uid="{8A649416-590D-4C41-B365-65ED8C5529B5}" name="id_res"/>
-    <tableColumn id="1" xr3:uid="{BE27EC98-A4DB-4FA6-9630-0CF682D9037B}" name="id_employe"/>
-    <tableColumn id="2" xr3:uid="{84AFEBF2-0BB8-42A2-A499-9EB32C395BD4}" name="id_user"/>
-    <tableColumn id="3" xr3:uid="{1D8A2D89-4CC6-4F36-B522-822A3C56F2E9}" name="id_article"/>
-    <tableColumn id="4" xr3:uid="{6219D263-EBFC-4FBC-9197-2F1C0D2628EC}" name="id_type"/>
-    <tableColumn id="5" xr3:uid="{BA7314F1-69C5-4F44-B0F8-BBAF38AEA53E}" name="id_dres" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B2577235-40AA-4C37-866B-D84319F56785}" name="id_table" dataDxfId="0"/>
+  <tableColumns count="11">
+    <tableColumn id="11" xr3:uid="{5E53E302-6B2A-46B8-BCAA-39A63D41DD73}" name="Colonne1" dataDxfId="12" dataCellStyle="Accent1"/>
+    <tableColumn id="8" xr3:uid="{BD4F5145-CB56-4C2A-BC3B-A1E2A26D0098}" name="id_cmd" dataDxfId="11" dataCellStyle="Accent1"/>
+    <tableColumn id="7" xr3:uid="{8A649416-590D-4C41-B365-65ED8C5529B5}" name="id_res" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{BE27EC98-A4DB-4FA6-9630-0CF682D9037B}" name="id_employe" dataDxfId="9"/>
+    <tableColumn id="10" xr3:uid="{9CE0BB1A-CD4D-4C65-8D66-963E31F62BB6}" name="id_user" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{84AFEBF2-0BB8-42A2-A499-9EB32C395BD4}" name="id_tiers" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1D8A2D89-4CC6-4F36-B522-822A3C56F2E9}" name="id_article" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{6219D263-EBFC-4FBC-9197-2F1C0D2628EC}" name="id_type" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{BA7314F1-69C5-4F44-B0F8-BBAF38AEA53E}" name="id_dres" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{B2577235-40AA-4C37-866B-D84319F56785}" name="id_table" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{49240FA6-A8C6-4E8F-AD41-67816991E338}" name="date_reg" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="1" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2082,10 +2218,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E4C60F5-7BF8-4163-A9BD-A44ED49DFD65}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C75"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2101,18 +2237,18 @@
       </c>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="22" t="s">
+        <v>165</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="29"/>
+      <c r="A3" s="22"/>
       <c r="B3" s="4">
         <v>1</v>
       </c>
@@ -2121,351 +2257,347 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29"/>
+      <c r="A4" s="22"/>
       <c r="B4" s="4">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="22"/>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="22"/>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="22"/>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="22"/>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="22"/>
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="22"/>
+      <c r="B11" s="4">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29"/>
-      <c r="B5" s="4">
-        <v>1</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="29"/>
-      <c r="B6" s="4">
-        <v>1</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="29"/>
-      <c r="B7" s="4">
-        <v>1</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="29"/>
-      <c r="B8" s="4">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="29"/>
-      <c r="B9" s="4">
-        <v>1</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29"/>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
+    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="22"/>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11" s="19" t="s">
+    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22"/>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C11" s="19" t="s">
+      <c r="C14" s="13" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29"/>
-      <c r="B13" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29"/>
-      <c r="B14" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29"/>
+      <c r="A16" s="22"/>
       <c r="B16" s="4" t="s">
         <v>151</v>
       </c>
       <c r="C16" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="22"/>
+      <c r="B17" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="22"/>
+      <c r="B18" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="22"/>
+      <c r="B19" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29"/>
-      <c r="B17" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29"/>
-      <c r="B18" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29"/>
-      <c r="B19" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="20" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29"/>
+      <c r="A20" s="22"/>
       <c r="B20" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29"/>
+      <c r="A21" s="22"/>
       <c r="B21" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29"/>
+      <c r="A22" s="22"/>
       <c r="B22" s="4" t="s">
         <v>152</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="22"/>
+      <c r="B23" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="22"/>
+      <c r="B24" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22"/>
+      <c r="B25" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29"/>
-      <c r="B23" s="4" t="s">
+    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B27" s="13" t="s">
+        <v>153</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="22"/>
+      <c r="B28" s="4">
+        <v>1</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22"/>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="22"/>
+      <c r="B30" s="4">
+        <v>1</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="22"/>
+      <c r="B31" s="4">
+        <v>1</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="31.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="22"/>
+      <c r="B32" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C24" s="19" t="s">
+      <c r="C32" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4" t="s">
+    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="22"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29"/>
-      <c r="B26" s="4" t="s">
+    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="22"/>
+      <c r="B34" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C34" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29"/>
-      <c r="B27" s="4" t="s">
+    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="22"/>
+      <c r="B35" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C35" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29"/>
-      <c r="B28" s="4" t="s">
+    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="22"/>
+      <c r="B36" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C36" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29"/>
-      <c r="B29" s="4" t="s">
+    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="22"/>
+      <c r="B37" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C37" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4" t="s">
+    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="22"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4" t="s">
+    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="22"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5" t="s">
+    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="22"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29" t="s">
+    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B41" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C33" s="19" t="s">
+      <c r="C41" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29"/>
-      <c r="B34" s="4">
-        <v>1</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29"/>
-      <c r="B35" s="4">
-        <v>1</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="29"/>
-      <c r="B36" s="4">
-        <v>1</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C37" s="19" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="28"/>
-      <c r="B38" s="4">
-        <v>1</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="28"/>
-      <c r="B39" s="4">
-        <v>1</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="28"/>
-      <c r="B40" s="4">
-        <v>1</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>155</v>
-      </c>
-      <c r="C41" s="19" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="42" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="29"/>
+      <c r="A42" s="22"/>
       <c r="B42" s="4">
         <v>1</v>
       </c>
@@ -2474,228 +2606,313 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="29"/>
+      <c r="A43" s="22"/>
       <c r="B43" s="4">
         <v>1</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="22"/>
+      <c r="B44" s="4">
+        <v>1</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="23"/>
+      <c r="B46" s="4">
+        <v>1</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="23"/>
+      <c r="B47" s="4">
+        <v>1</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="23"/>
+      <c r="B48" s="4">
+        <v>1</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="22"/>
+      <c r="B50" s="4">
+        <v>1</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="22"/>
+      <c r="B51" s="4">
+        <v>1</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="22"/>
+      <c r="B52" s="4">
+        <v>1</v>
+      </c>
+      <c r="C52" s="4" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="29" t="s">
+    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="22" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B53" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C53" s="13" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
-      <c r="B45" s="4">
-        <v>1</v>
-      </c>
-      <c r="C45" s="4" t="s">
+    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="22"/>
+      <c r="B54" s="4">
+        <v>1</v>
+      </c>
+      <c r="C54" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
-      <c r="B46" s="4">
-        <v>1</v>
-      </c>
-      <c r="C46" s="4" t="s">
+    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="22"/>
+      <c r="B55" s="4">
+        <v>1</v>
+      </c>
+      <c r="C55" s="4" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="29"/>
-      <c r="B47" s="4">
-        <v>1</v>
-      </c>
-      <c r="C47" s="4" t="s">
+    <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="22"/>
+      <c r="B56" s="4">
+        <v>1</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
-      <c r="B48" s="4">
-        <v>1</v>
-      </c>
-      <c r="C48" s="4" t="s">
+    <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="22"/>
+      <c r="B57" s="4">
+        <v>1</v>
+      </c>
+      <c r="C57" s="4" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
-      <c r="B49" s="4">
-        <v>1</v>
-      </c>
-      <c r="C49" s="4" t="s">
+    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="22"/>
+      <c r="B58" s="4">
+        <v>1</v>
+      </c>
+      <c r="C58" s="4" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+    <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B59" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C50" s="19" t="s">
+      <c r="C59" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="28"/>
-      <c r="B51" s="4">
-        <v>1</v>
-      </c>
-      <c r="C51" s="4" t="s">
+    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="23"/>
+      <c r="B60" s="4">
+        <v>1</v>
+      </c>
+      <c r="C60" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="28"/>
-      <c r="B52" s="4">
-        <v>1</v>
-      </c>
-      <c r="C52" s="4" t="s">
+    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="23"/>
+      <c r="B61" s="4">
+        <v>1</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28"/>
-      <c r="B53" s="4">
-        <v>1</v>
-      </c>
-      <c r="C53" s="4" t="s">
+    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="23"/>
+      <c r="B62" s="4">
+        <v>1</v>
+      </c>
+      <c r="C62" s="4" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="28"/>
-      <c r="B54" s="4">
-        <v>1</v>
-      </c>
-      <c r="C54" s="4" t="s">
+    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="23"/>
+      <c r="B63" s="4">
+        <v>1</v>
+      </c>
+      <c r="C63" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="28"/>
-      <c r="B55" s="5" t="s">
+    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="23"/>
+      <c r="B64" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C64" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+    <row r="65" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B65" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C56" s="19" t="s">
+      <c r="C65" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
-      <c r="B57" s="4">
-        <v>1</v>
-      </c>
-      <c r="C57" s="4" t="s">
+    <row r="66" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="23"/>
+      <c r="B66" s="4">
+        <v>1</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="28"/>
-      <c r="B58" s="30">
-        <v>1</v>
-      </c>
-      <c r="C58" s="30" t="s">
+    <row r="67" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="23"/>
+      <c r="B67" s="20">
+        <v>1</v>
+      </c>
+      <c r="C67" s="20" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="28"/>
-      <c r="B59" s="30" t="s">
+    <row r="68" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="23"/>
+      <c r="B68" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="30" t="s">
+      <c r="C68" s="20" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28"/>
-      <c r="B60" s="31">
-        <v>1</v>
-      </c>
-      <c r="C60" s="5" t="s">
+    <row r="69" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="23"/>
+      <c r="B69" s="21">
+        <v>1</v>
+      </c>
+      <c r="C69" s="5" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="29" t="s">
+    <row r="70" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="B61" s="19"/>
-      <c r="C61" s="19" t="s">
+      <c r="B70" s="13"/>
+      <c r="C70" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
-      <c r="B62" s="5"/>
-      <c r="C62" s="5" t="s">
+    <row r="71" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="22"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="29" t="s">
+    <row r="72" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="22" t="s">
         <v>159</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B72" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="19" t="s">
+      <c r="C72" s="13" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="29"/>
-      <c r="B64" s="30"/>
-      <c r="C64" s="30" t="s">
+    <row r="73" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="22"/>
+      <c r="B73" s="20"/>
+      <c r="C73" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="5" t="s">
+    <row r="74" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="22"/>
+      <c r="B74" s="21"/>
+      <c r="C74" s="5" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="A2:A10"/>
-    <mergeCell ref="A11:A23"/>
-    <mergeCell ref="A24:A32"/>
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="A56:A60"/>
-    <mergeCell ref="A37:A40"/>
-    <mergeCell ref="A50:A55"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="A72:A74"/>
+    <mergeCell ref="A2:A8"/>
+    <mergeCell ref="A9:A26"/>
+    <mergeCell ref="A27:A40"/>
+    <mergeCell ref="A41:A44"/>
+    <mergeCell ref="A49:A52"/>
+    <mergeCell ref="A65:A69"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A59:A64"/>
+    <mergeCell ref="A53:A58"/>
+    <mergeCell ref="A70:A71"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2705,8 +2922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{203D0B1D-CA3D-4693-9CEF-175A4E4EA94D}">
   <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2745,9 +2962,9 @@
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D3" s="9"/>
@@ -2762,7 +2979,7 @@
       <c r="B4" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D4" s="8"/>
@@ -2777,7 +2994,7 @@
       <c r="B5" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D5" s="8"/>
@@ -2792,7 +3009,7 @@
       <c r="B6" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D6" s="8"/>
@@ -2807,7 +3024,7 @@
       <c r="B7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D7" s="8"/>
@@ -2822,7 +3039,7 @@
       <c r="B8" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="8"/>
@@ -2835,7 +3052,7 @@
       <c r="B9" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D9" s="8"/>
@@ -2850,7 +3067,7 @@
       <c r="B10" s="8" t="s">
         <v>158</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D10" s="8"/>
@@ -2865,7 +3082,7 @@
       <c r="B11" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D11" s="8"/>
@@ -2878,25 +3095,25 @@
       <c r="B12" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="21" t="s">
+      <c r="C12" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2906,7 +3123,7 @@
       <c r="B14" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D14" s="8"/>
@@ -2921,7 +3138,7 @@
       <c r="B15" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D15" s="8"/>
@@ -2936,7 +3153,7 @@
       <c r="B16" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C16" s="21" t="s">
+      <c r="C16" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="8"/>
@@ -2951,7 +3168,7 @@
       <c r="B17" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="21" t="s">
+      <c r="C17" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="8"/>
@@ -2966,7 +3183,7 @@
       <c r="B18" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C18" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="8"/>
@@ -2981,7 +3198,7 @@
       <c r="B19" s="8" t="s">
         <v>115</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D19" s="8"/>
@@ -2996,7 +3213,7 @@
       <c r="B20" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="C20" s="21" t="s">
+      <c r="C20" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D20" s="8"/>
@@ -3011,7 +3228,7 @@
       <c r="B21" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C21" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D21" s="8"/>
@@ -3024,7 +3241,7 @@
       <c r="B22" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D22" s="8"/>
@@ -3039,7 +3256,7 @@
       <c r="B23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="C23" s="21" t="s">
+      <c r="C23" s="14" t="s">
         <v>95</v>
       </c>
       <c r="D23" s="8"/>
@@ -3054,7 +3271,7 @@
       <c r="B24" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="C24" s="21" t="s">
+      <c r="C24" s="14" t="s">
         <v>93</v>
       </c>
       <c r="D24" s="8"/>
@@ -3069,37 +3286,39 @@
       <c r="B25" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C25" s="21" t="s">
+      <c r="C25" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
     </row>
     <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="23" t="s">
+      <c r="A26" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="B26" s="23" t="s">
+      <c r="B26" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="23" t="s">
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+    </row>
+    <row r="27" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="16" t="s">
         <v>137</v>
       </c>
-      <c r="B27" s="23" t="s">
+      <c r="B27" s="16" t="s">
         <v>138</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
@@ -3108,7 +3327,7 @@
       <c r="B28" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="14" t="s">
         <v>94</v>
       </c>
       <c r="D28" s="8"/>
@@ -3121,7 +3340,7 @@
       <c r="B29" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="14" t="s">
         <v>140</v>
       </c>
       <c r="D29" s="8"/>
@@ -3130,17 +3349,17 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="25" t="s">
+      <c r="A30" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="B30" s="25" t="s">
+      <c r="B30" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="19" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="25"/>
-      <c r="E30" s="25" t="s">
+      <c r="D30" s="18"/>
+      <c r="E30" s="18" t="s">
         <v>149</v>
       </c>
     </row>
@@ -3217,10 +3436,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537CB443-417B-43F4-BE82-9F165FCDB729}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3228,37 +3447,44 @@
     <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="30" x14ac:dyDescent="0.25">
-      <c r="B1" s="27" t="s">
+      <c r="A1" s="28" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="30" t="s">
+        <v>167</v>
+      </c>
+      <c r="G1" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="H1" s="30" t="s">
         <v>114</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="30" t="s">
         <v>161</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="J1" s="30" t="s">
         <v>71</v>
       </c>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
+      <c r="K1" s="28" t="s">
+        <v>145</v>
+      </c>
+      <c r="L1" s="24"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
       <c r="O1" s="6"/>
@@ -3266,18 +3492,22 @@
       <c r="Q1" s="6"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
       <c r="M2" s="6"/>
       <c r="N2" s="6"/>
       <c r="O2" s="6"/>
@@ -3285,18 +3515,22 @@
       <c r="Q2" s="6"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
       <c r="M3" s="6"/>
       <c r="N3" s="6"/>
       <c r="O3" s="6"/>
@@ -3304,20 +3538,24 @@
       <c r="Q3" s="6"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="25" t="s">
         <v>156</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="24">
+        <v>1</v>
+      </c>
+      <c r="C4" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
       <c r="M4" s="6"/>
       <c r="N4" s="6"/>
       <c r="O4" s="6"/>
@@ -3325,18 +3563,22 @@
       <c r="Q4" s="6"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="25" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24">
+        <v>1</v>
+      </c>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="26"/>
+      <c r="G5" s="26"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
       <c r="O5" s="6"/>
@@ -3344,18 +3586,18 @@
       <c r="Q5" s="6"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
@@ -3363,15 +3605,22 @@
       <c r="Q6" s="6"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="24">
+        <v>1</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
@@ -3379,18 +3628,22 @@
       <c r="Q7" s="6"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6" t="s">
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
       <c r="M8" s="6"/>
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
@@ -3398,18 +3651,22 @@
       <c r="Q8" s="6"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6">
-        <v>1</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
+      <c r="A9" s="25" t="s">
+        <v>163</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24">
+        <v>1</v>
+      </c>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
@@ -3417,26 +3674,22 @@
       <c r="Q9" s="6"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6">
-        <v>1</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="A10" s="31" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
@@ -3444,22 +3697,22 @@
       <c r="Q10" s="6"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+      <c r="A11" s="31" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
@@ -3467,22 +3720,22 @@
       <c r="Q11" s="6"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="6"/>
+      <c r="A12" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24">
+        <v>1</v>
+      </c>
+      <c r="F12" s="24"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
@@ -3490,22 +3743,28 @@
       <c r="Q12" s="6"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
+      <c r="A13" s="25" t="s">
+        <v>167</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24">
+        <v>1</v>
+      </c>
+      <c r="D13" s="24">
+        <v>1</v>
+      </c>
+      <c r="E13" s="24">
+        <v>1</v>
+      </c>
+      <c r="F13" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
@@ -3513,22 +3772,22 @@
       <c r="Q13" s="6"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="A14" s="31" t="s">
+        <v>100</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24">
+        <v>1</v>
+      </c>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
       <c r="O14" s="6"/>
@@ -3536,22 +3795,22 @@
       <c r="Q14" s="6"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
+      <c r="A15" s="31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24">
+        <v>1</v>
+      </c>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
@@ -3559,22 +3818,22 @@
       <c r="Q15" s="6"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+      <c r="A16" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24">
+        <v>1</v>
+      </c>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
@@ -3582,22 +3841,22 @@
       <c r="Q16" s="6"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17" s="13" t="s">
-        <v>158</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
+      <c r="A17" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
@@ -3605,18 +3864,22 @@
       <c r="Q17" s="6"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="6"/>
+      <c r="A18" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
       <c r="M18" s="6"/>
       <c r="N18" s="6"/>
       <c r="O18" s="6"/>
@@ -3624,19 +3887,22 @@
       <c r="Q18" s="6"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="6">
-        <v>1</v>
-      </c>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="6"/>
+      <c r="A19" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
       <c r="O19" s="6"/>
@@ -3644,22 +3910,22 @@
       <c r="Q19" s="6"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
-      <c r="K20" s="6"/>
-      <c r="L20" s="6"/>
+      <c r="A20" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
       <c r="O20" s="6"/>
@@ -3667,22 +3933,22 @@
       <c r="Q20" s="6"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="6"/>
-      <c r="K21" s="6"/>
-      <c r="L21" s="6"/>
+      <c r="A21" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="26"/>
+      <c r="C21" s="24">
+        <v>1</v>
+      </c>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
       <c r="O21" s="6"/>
@@ -3690,22 +3956,22 @@
       <c r="Q21" s="6"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="6"/>
+      <c r="A22" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="B22" s="26"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
       <c r="O22" s="6"/>
@@ -3713,22 +3979,22 @@
       <c r="Q22" s="6"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
+      <c r="A23" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="26"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24">
+        <v>1</v>
+      </c>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
       <c r="O23" s="6"/>
@@ -3736,22 +4002,22 @@
       <c r="Q23" s="6"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6">
-        <v>1</v>
-      </c>
-      <c r="G24" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="J24" s="6"/>
-      <c r="K24" s="6"/>
-      <c r="L24" s="6"/>
+      <c r="A24" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
       <c r="O24" s="6"/>
@@ -3759,121 +4025,494 @@
       <c r="Q24" s="6"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24">
+        <v>1</v>
+      </c>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="6"/>
+      <c r="N25" s="6"/>
+      <c r="O25" s="6"/>
+      <c r="P25" s="6"/>
+      <c r="Q25" s="6"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" s="24"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24">
+        <v>1</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="6"/>
+      <c r="N26" s="6"/>
+      <c r="O26" s="6"/>
+      <c r="P26" s="6"/>
+      <c r="Q26" s="6"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>111</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24">
+        <v>1</v>
+      </c>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="26"/>
+      <c r="L27" s="26"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24">
+        <v>1</v>
+      </c>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="26"/>
+      <c r="L28" s="26"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24">
+        <v>1</v>
+      </c>
+      <c r="H29" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I29" s="26"/>
+      <c r="J29" s="26"/>
+      <c r="K29" s="26"/>
+      <c r="L29" s="26"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="F26" s="6"/>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6" t="s">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24">
+        <v>1</v>
+      </c>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="27"/>
+      <c r="C31" s="24">
+        <v>1</v>
+      </c>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27" s="16" t="s">
-        <v>115</v>
-      </c>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6">
-        <v>1</v>
-      </c>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6">
-        <v>1</v>
-      </c>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="B29" s="20"/>
-      <c r="C29" s="6">
-        <v>1</v>
-      </c>
-      <c r="F29" s="6"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+      <c r="K31" s="26"/>
+      <c r="L31" s="26"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" s="31" t="s">
         <v>117</v>
       </c>
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A31" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A32" s="14" t="s">
+      <c r="B32" s="26"/>
+      <c r="C32" s="26"/>
+      <c r="D32" s="26"/>
+      <c r="E32" s="26"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24">
+        <v>1</v>
+      </c>
+      <c r="K32" s="26"/>
+      <c r="L32" s="26"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="31" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="26"/>
+      <c r="C33" s="26"/>
+      <c r="D33" s="26"/>
+      <c r="E33" s="26"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24">
+        <v>1</v>
+      </c>
+      <c r="K33" s="26"/>
+      <c r="L33" s="26"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="25" t="s">
         <v>119</v>
       </c>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="14" t="s">
+      <c r="B34" s="26"/>
+      <c r="C34" s="26"/>
+      <c r="D34" s="26"/>
+      <c r="E34" s="26"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24">
+        <v>1</v>
+      </c>
+      <c r="K34" s="26"/>
+      <c r="L34" s="26"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="25" t="s">
         <v>120</v>
       </c>
-      <c r="H33" s="6"/>
-      <c r="I33" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="14" t="s">
+      <c r="B35" s="26"/>
+      <c r="C35" s="26"/>
+      <c r="D35" s="26"/>
+      <c r="E35" s="26"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24">
+        <v>1</v>
+      </c>
+      <c r="K35" s="26"/>
+      <c r="L35" s="26"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="25" t="s">
         <v>118</v>
       </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="14" t="s">
+      <c r="B36" s="26"/>
+      <c r="C36" s="26"/>
+      <c r="D36" s="26"/>
+      <c r="E36" s="26"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="26"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24">
+        <v>1</v>
+      </c>
+      <c r="K36" s="26"/>
+      <c r="L36" s="26"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6">
-        <v>1</v>
-      </c>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="26"/>
+      <c r="E37" s="26"/>
+      <c r="F37" s="26"/>
+      <c r="G37" s="26"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24">
+        <v>1</v>
+      </c>
+      <c r="K37" s="26"/>
+      <c r="L37" s="26"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="B38" s="28"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="26"/>
+      <c r="H38" s="26"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="26"/>
+      <c r="L38" s="26"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="26"/>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="26"/>
+      <c r="F39" s="26"/>
+      <c r="G39" s="26"/>
+      <c r="H39" s="26"/>
+      <c r="I39" s="26"/>
+      <c r="J39" s="26"/>
+      <c r="K39" s="26"/>
+      <c r="L39" s="26"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="26"/>
+      <c r="C40" s="26"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="26"/>
+      <c r="F40" s="26"/>
+      <c r="G40" s="26"/>
+      <c r="H40" s="26"/>
+      <c r="I40" s="26"/>
+      <c r="J40" s="26"/>
+      <c r="K40" s="26"/>
+      <c r="L40" s="26"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="26"/>
+      <c r="F41" s="26"/>
+      <c r="G41" s="26"/>
+      <c r="H41" s="26"/>
+      <c r="I41" s="26"/>
+      <c r="J41" s="26"/>
+      <c r="K41" s="26"/>
+      <c r="L41" s="26"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="26"/>
+      <c r="B42" s="26"/>
+      <c r="C42" s="26"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="26"/>
+      <c r="I42" s="26"/>
+      <c r="J42" s="26"/>
+      <c r="K42" s="26"/>
+      <c r="L42" s="26"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="26"/>
+      <c r="B45" s="26"/>
+      <c r="C45" s="26"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="26"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="26"/>
+      <c r="C46" s="26"/>
+      <c r="D46" s="26"/>
+      <c r="E46" s="26"/>
+      <c r="F46" s="26"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="26"/>
+      <c r="I46" s="26"/>
+      <c r="J46" s="26"/>
+      <c r="K46" s="26"/>
+      <c r="L46" s="26"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="26"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="26"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="26"/>
+      <c r="C48" s="26"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="26"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="26"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="26"/>
+      <c r="B50" s="26"/>
+      <c r="C50" s="26"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="26"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="26"/>
+      <c r="C51" s="26"/>
+      <c r="D51" s="26"/>
+      <c r="E51" s="26"/>
+      <c r="F51" s="26"/>
+      <c r="G51" s="26"/>
+      <c r="H51" s="26"/>
+      <c r="I51" s="26"/>
+      <c r="J51" s="26"/>
+      <c r="K51" s="26"/>
+      <c r="L51" s="26"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="26"/>
+      <c r="B52" s="26"/>
+      <c r="C52" s="26"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="26"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="26"/>
+      <c r="C53" s="26"/>
+      <c r="D53" s="26"/>
+      <c r="E53" s="26"/>
+      <c r="F53" s="26"/>
+      <c r="G53" s="26"/>
+      <c r="H53" s="26"/>
+      <c r="I53" s="26"/>
+      <c r="J53" s="26"/>
+      <c r="K53" s="26"/>
+      <c r="L53" s="26"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="26"/>
+      <c r="C54" s="26"/>
+      <c r="D54" s="26"/>
+      <c r="E54" s="26"/>
+      <c r="F54" s="26"/>
+      <c r="G54" s="26"/>
+      <c r="H54" s="26"/>
+      <c r="I54" s="26"/>
+      <c r="J54" s="26"/>
+      <c r="K54" s="26"/>
+      <c r="L54" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
